--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07776427771768228</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.505481577556227</v>
+        <v>-1.545580812449028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.212178252143007</v>
+        <v>0.09359320472491234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.150060880819601</v>
+        <v>0.09929901265589042</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07699405987014579</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.420513528078455</v>
+        <v>-1.393584920279352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2004403287189906</v>
+        <v>0.05317986068358602</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1275584673716582</v>
+        <v>0.0833038429081726</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07950907451314339</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.43813352650903</v>
+        <v>-1.364203211518368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1588888726948524</v>
+        <v>0.01861016664618284</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1563509927589038</v>
+        <v>0.127391959026906</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08609856213900223</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.500980362961827</v>
+        <v>-1.419118029570056</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1658029334864684</v>
+        <v>0.05437408536865872</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1377398732286135</v>
+        <v>0.09759123476099586</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09674706877893739</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.465333549009286</v>
+        <v>-1.437909685620663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2676511476139196</v>
+        <v>0.1382046327842955</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1658883223812131</v>
+        <v>0.118199844507636</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1106485121560967</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.336509763190622</v>
+        <v>-1.333125923276024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3349906597716424</v>
+        <v>0.2101703932751524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07829761399342454</v>
+        <v>0.05053158510514595</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1274816743331039</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.032807691172724</v>
+        <v>-1.070925903707448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3872986768509094</v>
+        <v>0.2918802464977362</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03653939485986876</v>
+        <v>0.006669139636809363</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1461150306161546</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4927034144506631</v>
+        <v>-0.5144001226846218</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3572295874872302</v>
+        <v>0.2477097910876419</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005664600282205312</v>
+        <v>-0.04140541802514931</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1644640192286601</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09460140360357688</v>
+        <v>0.1370396842917067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.370530127685075</v>
+        <v>0.3065098038502151</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04281616455046757</v>
+        <v>-0.06559487206497729</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1764998512348402</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7639356733150167</v>
+        <v>0.9541687125513825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1813174857409088</v>
+        <v>0.1215178129891454</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01982215503706579</v>
+        <v>-0.01254214183940097</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.176092589835535</v>
       </c>
       <c r="E12" t="n">
-        <v>1.486615435176872</v>
+        <v>1.881045037623073</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.204183487918378</v>
+        <v>-0.2438984727848278</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06592476314491344</v>
+        <v>0.1224381832903582</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1558732633730205</v>
       </c>
       <c r="E13" t="n">
-        <v>2.176284460251092</v>
+        <v>2.762399932985673</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5805216232508787</v>
+        <v>-0.5788461711518518</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1719155585088374</v>
+        <v>0.2427871213056083</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1094972310058252</v>
       </c>
       <c r="E14" t="n">
-        <v>2.784376594810259</v>
+        <v>3.577352764270711</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.132396759113501</v>
+        <v>-1.130298631985487</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3175798641331924</v>
+        <v>0.4354866797587432</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.03307113939668564</v>
       </c>
       <c r="E15" t="n">
-        <v>3.490108490827316</v>
+        <v>4.482976403361117</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.727514051116207</v>
+        <v>-1.757856384943069</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4276918935099031</v>
+        <v>0.6402108243539661</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.0710261713627985</v>
       </c>
       <c r="E16" t="n">
-        <v>4.117034975884463</v>
+        <v>5.257545166797312</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.281592830383919</v>
+        <v>-2.321333431918792</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6272006063982533</v>
+        <v>0.8300687623741319</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1979935809071513</v>
       </c>
       <c r="E17" t="n">
-        <v>4.686005578395656</v>
+        <v>5.94749597522419</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.888832295836993</v>
+        <v>-2.848731841102838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8162790657935349</v>
+        <v>1.062676040627569</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3444672848503935</v>
       </c>
       <c r="E18" t="n">
-        <v>5.044930478407</v>
+        <v>6.41472205012298</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.467942524638784</v>
+        <v>-3.387875187798683</v>
       </c>
       <c r="G18" t="n">
-        <v>1.023987552260086</v>
+        <v>1.303134827752784</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5059350821453874</v>
       </c>
       <c r="E19" t="n">
-        <v>5.385727316064038</v>
+        <v>6.804485759392058</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.019975934917023</v>
+        <v>-3.842068782637058</v>
       </c>
       <c r="G19" t="n">
-        <v>1.26363636472658</v>
+        <v>1.530848712416671</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6748069215106152</v>
       </c>
       <c r="E20" t="n">
-        <v>5.747993361542608</v>
+        <v>7.173545101368248</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.571010295126747</v>
+        <v>-4.282755379128509</v>
       </c>
       <c r="G20" t="n">
-        <v>1.445651942685119</v>
+        <v>1.700794570103043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.840684750252884</v>
       </c>
       <c r="E21" t="n">
-        <v>6.014575051252942</v>
+        <v>7.43123902697701</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.916650512877841</v>
+        <v>-4.608536884605025</v>
       </c>
       <c r="G21" t="n">
-        <v>1.584953555809638</v>
+        <v>1.867986635933897</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9986742450820532</v>
       </c>
       <c r="E22" t="n">
-        <v>6.179037722055349</v>
+        <v>7.59437695006952</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.174568584335308</v>
+        <v>-4.851628394331422</v>
       </c>
       <c r="G22" t="n">
-        <v>1.780038514029535</v>
+        <v>2.027150315896717</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.14531711287462</v>
       </c>
       <c r="E23" t="n">
-        <v>6.306957605431072</v>
+        <v>7.681222335390322</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.387811491022671</v>
+        <v>-5.051566491376204</v>
       </c>
       <c r="G23" t="n">
-        <v>1.897817856233645</v>
+        <v>2.14654594789421</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.280792280198399</v>
       </c>
       <c r="E24" t="n">
-        <v>6.455953907712502</v>
+        <v>7.715803617920583</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.488647846747397</v>
+        <v>-5.148952220872228</v>
       </c>
       <c r="G24" t="n">
-        <v>1.975253995274255</v>
+        <v>2.277087270338597</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.402196979808732</v>
       </c>
       <c r="E25" t="n">
-        <v>6.484083449324122</v>
+        <v>7.721464901642158</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.501868182376249</v>
+        <v>-5.167362981460206</v>
       </c>
       <c r="G25" t="n">
-        <v>2.03051829787372</v>
+        <v>2.311773459225259</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.507513904266438</v>
       </c>
       <c r="E26" t="n">
-        <v>6.519460068416863</v>
+        <v>7.66644151771001</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.482791388409262</v>
+        <v>-5.166750621100751</v>
       </c>
       <c r="G26" t="n">
-        <v>2.037447606682254</v>
+        <v>2.334400296491258</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.593324924104139</v>
       </c>
       <c r="E27" t="n">
-        <v>6.432373154508069</v>
+        <v>7.49167118747056</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.469210894620789</v>
+        <v>-5.172191418497682</v>
       </c>
       <c r="G27" t="n">
-        <v>2.036096022462581</v>
+        <v>2.333341474196424</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.655726191825926</v>
       </c>
       <c r="E28" t="n">
-        <v>6.365879602328995</v>
+        <v>7.320137096341937</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.360688318527685</v>
+        <v>-5.138682681477483</v>
       </c>
       <c r="G28" t="n">
-        <v>2.000596199393137</v>
+        <v>2.272679983528415</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.690154960725078</v>
       </c>
       <c r="E29" t="n">
-        <v>6.273662035687396</v>
+        <v>7.084327124614895</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.212423006177338</v>
+        <v>-4.973075799485496</v>
       </c>
       <c r="G29" t="n">
-        <v>1.917591484573817</v>
+        <v>2.181100393914694</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.693437856417918</v>
       </c>
       <c r="E30" t="n">
-        <v>6.16066081206493</v>
+        <v>6.838763301425299</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.031441548726225</v>
+        <v>-4.876275898799489</v>
       </c>
       <c r="G30" t="n">
-        <v>1.883648179071434</v>
+        <v>2.141977642025367</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.664865928366398</v>
       </c>
       <c r="E31" t="n">
-        <v>6.038502239401768</v>
+        <v>6.5996182834378</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.884008778099639</v>
+        <v>-4.827260538493646</v>
       </c>
       <c r="G31" t="n">
-        <v>1.772889633777371</v>
+        <v>2.065483830430332</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.606677891225234</v>
       </c>
       <c r="E32" t="n">
-        <v>5.85484902442616</v>
+        <v>6.275328338976271</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.643888191989681</v>
+        <v>-4.611116849067669</v>
       </c>
       <c r="G32" t="n">
-        <v>1.729990862978296</v>
+        <v>1.970090406824906</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.52466584631326</v>
       </c>
       <c r="E33" t="n">
-        <v>5.597811373465579</v>
+        <v>5.923728586292672</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.480568207575161</v>
+        <v>-4.478791813604133</v>
       </c>
       <c r="G33" t="n">
-        <v>1.632732301943374</v>
+        <v>1.884614293423403</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.427009573190368</v>
       </c>
       <c r="E34" t="n">
-        <v>5.379362183881495</v>
+        <v>5.626563034167483</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.267992859068499</v>
+        <v>-4.284981589598639</v>
       </c>
       <c r="G34" t="n">
-        <v>1.498866301890033</v>
+        <v>1.70866681627783</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.32286779127763</v>
       </c>
       <c r="E35" t="n">
-        <v>5.131790501824045</v>
+        <v>5.302310904787913</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.14622768524184</v>
+        <v>-4.211847526051471</v>
       </c>
       <c r="G35" t="n">
-        <v>1.438798873961177</v>
+        <v>1.6592065188383</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.219731210049492</v>
       </c>
       <c r="E36" t="n">
-        <v>4.87579825490341</v>
+        <v>4.922104652523476</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.964184660852847</v>
+        <v>-4.092315881743064</v>
       </c>
       <c r="G36" t="n">
-        <v>1.406964674158989</v>
+        <v>1.593941346902197</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.122560698512235</v>
       </c>
       <c r="E37" t="n">
-        <v>4.546843637106113</v>
+        <v>4.565155895504796</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.853227281418164</v>
+        <v>-3.941837777177475</v>
       </c>
       <c r="G37" t="n">
-        <v>1.31984299477162</v>
+        <v>1.488781263500004</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.03456271042098</v>
       </c>
       <c r="E38" t="n">
-        <v>4.253540102706093</v>
+        <v>4.214427109547593</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.767132708450438</v>
+        <v>-3.800609119674771</v>
       </c>
       <c r="G38" t="n">
-        <v>1.239524370612699</v>
+        <v>1.372521233701673</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9562582936362638</v>
       </c>
       <c r="E39" t="n">
-        <v>3.986353371684424</v>
+        <v>3.932564467202013</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.746024573669541</v>
+        <v>-3.695905866859462</v>
       </c>
       <c r="G39" t="n">
-        <v>1.162638380022515</v>
+        <v>1.296300666569822</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8885961695152096</v>
       </c>
       <c r="E40" t="n">
-        <v>3.656186231581751</v>
+        <v>3.546084570856546</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.656932240575599</v>
+        <v>-3.612734948655728</v>
       </c>
       <c r="G40" t="n">
-        <v>1.081959902664312</v>
+        <v>1.185518334369365</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8296590341789178</v>
       </c>
       <c r="E41" t="n">
-        <v>3.446206400514991</v>
+        <v>3.302859183541602</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.563316430782555</v>
+        <v>-3.470394100798973</v>
       </c>
       <c r="G41" t="n">
-        <v>1.021478338595945</v>
+        <v>1.114349130282341</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7784347965012456</v>
       </c>
       <c r="E42" t="n">
-        <v>3.137210826943597</v>
+        <v>2.961385333933373</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.514771319318485</v>
+        <v>-3.353815692407379</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9986770640163952</v>
+        <v>1.041728314984657</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7311789131493296</v>
       </c>
       <c r="E43" t="n">
-        <v>2.845010029127137</v>
+        <v>2.619699231929637</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.425022711576362</v>
+        <v>-3.229579119998537</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9255201284438493</v>
+        <v>0.9640353993391357</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6864944813341447</v>
       </c>
       <c r="E44" t="n">
-        <v>2.629878808024562</v>
+        <v>2.345221509138122</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.379670839815407</v>
+        <v>-3.201468485927896</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9122653322967605</v>
+        <v>0.9350159834601399</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6413404651345657</v>
       </c>
       <c r="E45" t="n">
-        <v>2.364119291386484</v>
+        <v>2.062483630621409</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.282544631567339</v>
+        <v>-3.115513584795146</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8327597323999443</v>
+        <v>0.8241043480762126</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5937108648390151</v>
       </c>
       <c r="E46" t="n">
-        <v>2.209149425996984</v>
+        <v>1.940949006810561</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.208413652674026</v>
+        <v>-3.024836067862335</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8062714873294529</v>
+        <v>0.7739926553539154</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5417542107655985</v>
       </c>
       <c r="E47" t="n">
-        <v>1.995801003032544</v>
+        <v>1.670052128312234</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.114322409713457</v>
+        <v>-2.932065303166925</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7092733624235021</v>
+        <v>0.6563029714892868</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4847883578496942</v>
       </c>
       <c r="E48" t="n">
-        <v>1.860697473926081</v>
+        <v>1.497742828003463</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.075229848897628</v>
+        <v>-2.823942835037767</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6396765338411348</v>
+        <v>0.6060448978045702</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.424228816136823</v>
       </c>
       <c r="E49" t="n">
-        <v>1.668926824663634</v>
+        <v>1.347528514130568</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.01880151268659</v>
+        <v>-2.761427185512444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5610205534470285</v>
+        <v>0.541560424334705</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3616776919654304</v>
       </c>
       <c r="E50" t="n">
-        <v>1.570110526220297</v>
+        <v>1.225862757374219</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.93617189908347</v>
+        <v>-2.691022821954063</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5185243302946075</v>
+        <v>0.5150569312472949</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2994010694152524</v>
       </c>
       <c r="E51" t="n">
-        <v>1.451333353789027</v>
+        <v>1.123529046388076</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.866775734403753</v>
+        <v>-2.638940475525192</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4430948302804985</v>
+        <v>0.439251720096309</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2378819733774478</v>
       </c>
       <c r="E52" t="n">
-        <v>1.392942597800552</v>
+        <v>1.078092395653053</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.765343486177844</v>
+        <v>-2.559848401847211</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3618119215316383</v>
+        <v>0.3832975972114421</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1790170184334583</v>
       </c>
       <c r="E53" t="n">
-        <v>1.303269010301668</v>
+        <v>1.034392799005408</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.730528604028388</v>
+        <v>-2.500085324336053</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3664265813719141</v>
+        <v>0.3438515873634382</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1232353992767048</v>
       </c>
       <c r="E54" t="n">
-        <v>1.192945338450126</v>
+        <v>0.9993363882679599</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.686047698993829</v>
+        <v>-2.44363533594099</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3049721938241333</v>
+        <v>0.3169790922665955</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.07173325426164305</v>
       </c>
       <c r="E55" t="n">
-        <v>1.14401140255463</v>
+        <v>1.008698670656043</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.642476795608978</v>
+        <v>-2.397037396237438</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2731013987813403</v>
+        <v>0.2991572100920173</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.023533546138214</v>
       </c>
       <c r="E56" t="n">
-        <v>1.10744726790426</v>
+        <v>1.01382688370614</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.617878694715729</v>
+        <v>-2.364923852765299</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2471370755721754</v>
+        <v>0.2515766881782245</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02153826368271011</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9677815321357223</v>
+        <v>0.9525835287125142</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.592924400147258</v>
+        <v>-2.320635072743916</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1992796496711391</v>
+        <v>0.1927358107303092</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.06542446054388126</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9432072181488663</v>
+        <v>0.9328056309276049</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.612395507831764</v>
+        <v>-2.350713310917746</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1739667217447412</v>
+        <v>0.1805221491784293</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1092789473925199</v>
       </c>
       <c r="E59" t="n">
-        <v>0.882826290992162</v>
+        <v>0.9443831452136365</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.547345637894553</v>
+        <v>-2.275522899808923</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1746644709989409</v>
+        <v>0.1635437872997936</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1550108922006223</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8444439828044068</v>
+        <v>0.9497095824836773</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.583996991201697</v>
+        <v>-2.287514550234466</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1315400295494695</v>
+        <v>0.174318036054548</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2038484645138721</v>
       </c>
       <c r="E61" t="n">
-        <v>0.889856846633037</v>
+        <v>1.022630478754322</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.600842390372802</v>
+        <v>-2.283893451176613</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1343603027587525</v>
+        <v>0.1759300564031932</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2558953113458749</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8614906557988382</v>
+        <v>1.054657413490362</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.591703948873086</v>
+        <v>-2.303836637464921</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09997480476572727</v>
+        <v>0.1605112616950023</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3110882999472021</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8774016564931648</v>
+        <v>1.120755737070903</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.59818313622218</v>
+        <v>-2.304976579209763</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07575180508867814</v>
+        <v>0.1395836634344229</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3680334264842091</v>
       </c>
       <c r="E64" t="n">
-        <v>0.907919037554254</v>
+        <v>1.174347027254047</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.676984277737353</v>
+        <v>-2.399259947183508</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1118243436735885</v>
+        <v>0.1754280916862295</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4257794187738541</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9143805372037228</v>
+        <v>1.252660842148498</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.791188264934366</v>
+        <v>-2.482670869173542</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05842822810700306</v>
+        <v>0.1507976649971127</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4816202586747016</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9226858270590012</v>
+        <v>1.296255532439742</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.854388855379677</v>
+        <v>-2.562368594083534</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0424781924893646</v>
+        <v>0.1370354148469695</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5350108459315978</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9189915375199381</v>
+        <v>1.366438494792465</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.883415590306793</v>
+        <v>-2.59153439092495</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.003607413845718665</v>
+        <v>0.07642454759513126</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5847544651954754</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9326440019482667</v>
+        <v>1.428510731985791</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.960648015841369</v>
+        <v>-2.629126241915639</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05473035505006413</v>
+        <v>0.07015700272086821</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6307364162035292</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9072658125094567</v>
+        <v>1.419217980554858</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.99253436386142</v>
+        <v>-2.676317634437667</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.02853182230102805</v>
+        <v>0.09280945665529108</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6723397965228666</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8965220597885397</v>
+        <v>1.479559262867574</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.058868116823185</v>
+        <v>-2.636254384864794</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04491368175780414</v>
+        <v>0.06667130605325305</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7097093142764951</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8776102493646127</v>
+        <v>1.496115559637899</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.104181868541843</v>
+        <v>-2.668832687892615</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06006716097160964</v>
+        <v>0.05105184744241204</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.742370022131511</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8574359031398172</v>
+        <v>1.528424887647274</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.178059120433629</v>
+        <v>-2.701712901655426</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1235422157214568</v>
+        <v>0.009046000514096545</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7695165732216717</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8688011650303404</v>
+        <v>1.596449950645662</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.243494155278206</v>
+        <v>-2.73351782526513</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1987875196911879</v>
+        <v>-0.04722589104335603</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7902135019008975</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8337709808819925</v>
+        <v>1.634609027865727</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.289670639794124</v>
+        <v>-2.722883248345351</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2325710259762629</v>
+        <v>-0.07355921626195343</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8037235333987164</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8274814788633665</v>
+        <v>1.635520249356789</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.292219193341916</v>
+        <v>-2.685498160464079</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2298794460297737</v>
+        <v>-0.07979443534034883</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8093223397657325</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8404630305472722</v>
+        <v>1.708879068673339</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.346621068104459</v>
+        <v>-2.723287015833358</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2429640743080498</v>
+        <v>-0.09191904847342347</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8060214983796755</v>
       </c>
       <c r="E77" t="n">
-        <v>0.756677007341038</v>
+        <v>1.657897629065999</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.372285310340664</v>
+        <v>-2.751120135996079</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2670071473854582</v>
+        <v>-0.07039006842557052</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7925623708377708</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8038732792284795</v>
+        <v>1.738971335022734</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.35689518190428</v>
+        <v>-2.76356800708783</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.238409796614772</v>
+        <v>-0.08472076464644289</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7680588322310161</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8213017625665552</v>
+        <v>1.802055430618786</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.31581123007887</v>
+        <v>-2.737631740229796</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2034027894521405</v>
+        <v>-0.02864221794351945</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7322465807568072</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8797943753080475</v>
+        <v>1.878053986624301</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.289277240957622</v>
+        <v>-2.681950861808112</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2256984397906658</v>
+        <v>-0.04649764575531885</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.686068816061521</v>
       </c>
       <c r="E81" t="n">
-        <v>1.032090958371361</v>
+        <v>1.993918177903423</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.170832780255518</v>
+        <v>-2.537463703089881</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2439490962009979</v>
+        <v>-0.06657928403724865</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6306194726269795</v>
       </c>
       <c r="E82" t="n">
-        <v>1.115881251022332</v>
+        <v>2.057471302499893</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.054501694698346</v>
+        <v>-2.449831520096073</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.201520574243696</v>
+        <v>-0.02492719110144703</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5675747379251163</v>
       </c>
       <c r="E83" t="n">
-        <v>1.292882061176649</v>
+        <v>2.217828597227109</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.918095679986688</v>
+        <v>-2.3151427370498</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.176469302287623</v>
+        <v>-0.01454695110387183</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4975796602184976</v>
       </c>
       <c r="E84" t="n">
-        <v>1.549994122459793</v>
+        <v>2.417866721262877</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.821948394424801</v>
+        <v>-2.192632850076831</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2061279150358508</v>
+        <v>-0.04431534957391429</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4224816826023919</v>
       </c>
       <c r="E85" t="n">
-        <v>1.742940698787011</v>
+        <v>2.526536288239078</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.610843869630116</v>
+        <v>-1.970123418547635</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1567328791087326</v>
+        <v>-0.01158395645622977</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3431659392306241</v>
       </c>
       <c r="E86" t="n">
-        <v>1.961538099095545</v>
+        <v>2.683228569619715</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.412878865974616</v>
+        <v>-1.765497471181369</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1707878911837148</v>
+        <v>-0.007855511359268888</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2625280428561969</v>
       </c>
       <c r="E87" t="n">
-        <v>2.119863138127836</v>
+        <v>2.830764721801009</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.147975677966692</v>
+        <v>-1.499409207298524</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1568298564963355</v>
+        <v>0.01151434949289594</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1836129396176005</v>
       </c>
       <c r="E88" t="n">
-        <v>2.289022198141203</v>
+        <v>2.943062096962508</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.833609752836531</v>
+        <v>-1.230185341216517</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1325312266553696</v>
+        <v>-0.02190381430680691</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1106823795476056</v>
       </c>
       <c r="E89" t="n">
-        <v>2.351812311971062</v>
+        <v>3.001960916874715</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.609331551344766</v>
+        <v>-1.033761607111158</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1534765126155747</v>
+        <v>-0.05234617512465597</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04758535234228557</v>
       </c>
       <c r="E90" t="n">
-        <v>2.45443390551663</v>
+        <v>3.081066408807585</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.40595838104854</v>
+        <v>-0.8445904397730108</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1713288908239904</v>
+        <v>-0.06013730184943566</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.002313414587814876</v>
       </c>
       <c r="E91" t="n">
-        <v>2.463036226741484</v>
+        <v>3.049989730485917</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.072135376409439</v>
+        <v>-0.5292071669540344</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1404449474361757</v>
+        <v>-0.06531613831570343</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03543651832107128</v>
       </c>
       <c r="E92" t="n">
-        <v>2.394448206958458</v>
+        <v>3.010166789659683</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8993735149585215</v>
+        <v>-0.3568332150535284</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1446052163722742</v>
+        <v>-0.05601545791597229</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04824066798792226</v>
       </c>
       <c r="E93" t="n">
-        <v>2.326638445958963</v>
+        <v>2.960116698925737</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6402243186150391</v>
+        <v>-0.07948764523994456</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1752384823619454</v>
+        <v>-0.1458945886829196</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03900178119524964</v>
       </c>
       <c r="E94" t="n">
-        <v>2.254118877493618</v>
+        <v>2.851863097851078</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4048540996959333</v>
+        <v>0.09638786126577194</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1727213397290062</v>
+        <v>-0.1613957226824715</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0095066383328617</v>
       </c>
       <c r="E95" t="n">
-        <v>2.107443933307892</v>
+        <v>2.684466708593513</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1946736047265223</v>
+        <v>0.2909153519871208</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1882371118248</v>
+        <v>-0.1695887871332282</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03440207045310432</v>
       </c>
       <c r="E96" t="n">
-        <v>1.958655613977234</v>
+        <v>2.475759172058449</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.04151642358831746</v>
+        <v>0.3952306952520179</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2110536344212681</v>
+        <v>-0.1904364857851535</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08186686079173472</v>
       </c>
       <c r="E97" t="n">
-        <v>1.810691907401538</v>
+        <v>2.294689581069546</v>
       </c>
       <c r="F97" t="n">
-        <v>0.11795526631626</v>
+        <v>0.4967031982425923</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2096319093237684</v>
+        <v>-0.2058534507313142</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1187470268180482</v>
       </c>
       <c r="E98" t="n">
-        <v>1.62820913020461</v>
+        <v>2.038551563107168</v>
       </c>
       <c r="F98" t="n">
-        <v>0.225526976074315</v>
+        <v>0.5322237586150457</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2940620087646486</v>
+        <v>-0.3114057131286563</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1356204565035581</v>
       </c>
       <c r="E99" t="n">
-        <v>1.502979606934022</v>
+        <v>1.791647744190757</v>
       </c>
       <c r="F99" t="n">
-        <v>0.318800925328042</v>
+        <v>0.5856143848955404</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2797435109573111</v>
+        <v>-0.3221397071187454</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1288783238645947</v>
       </c>
       <c r="E100" t="n">
-        <v>1.348942920179947</v>
+        <v>1.597219060619041</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3677738961468506</v>
+        <v>0.5828923089152138</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3516281519981605</v>
+        <v>-0.3930173691222837</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1069115916734476</v>
       </c>
       <c r="E101" t="n">
-        <v>1.273282870150027</v>
+        <v>1.376013029576056</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4168651915769482</v>
+        <v>0.5888579430544866</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3643498774737715</v>
+        <v>-0.4294107259831636</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07905429141070373</v>
       </c>
       <c r="E102" t="n">
-        <v>1.126980587497793</v>
+        <v>1.122441557821434</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4203710156268961</v>
+        <v>0.5406223663338664</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4044393536357446</v>
+        <v>-0.4572060310639261</v>
       </c>
     </row>
   </sheetData>
